--- a/chaned_tests/results_ChdNormal.xlsx
+++ b/chaned_tests/results_ChdNormal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ChdNormal</t>
+          <t>NLPD</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MSLL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CRPS</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
         </is>
       </c>
     </row>
@@ -445,7 +465,199 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.38990860694094</v>
+        <v>-37.19764182061353</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.8791054990264238</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0385928704596256</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.004975665040689674</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04134437681046853</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.57009392033998</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.6811914981708261</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0462132374189618</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.006303899051853451</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04972513782949198</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-31.15452991861112</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6075589245933372</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04664480657918757</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.006745008104330794</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04976085955664439</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-30.72816030983093</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.5749564824105399</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04695289528614271</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.006899398487777307</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05016013375585724</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-28.71341595426464</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.5179595180636277</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05174370506595131</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.007250142244500401</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05541264676918181</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-29.52486590530964</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.5500900040322128</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05041363285084336</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.007496271073825005</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05416021271606342</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-29.66111755311866</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.5541564384891958</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05095884794337013</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.007458379078295392</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.05454245123930587</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-28.9486441224176</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.5099458376903144</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0532882841366525</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.007943037457441958</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05701691177477559</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-27.8247484458317</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.4662128199539322</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05485395071730351</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.008484977378770719</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05914576042631733</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-26.5153492416896</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.3952505140835109</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05702313773319988</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.009344729836952255</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.06122687295671812</v>
       </c>
     </row>
   </sheetData>
